--- a/data/validation/validation1_class.xlsx
+++ b/data/validation/validation1_class.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Documents/Berkeley/1603Fall/W210/GitHub/slack-pack/code/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Documents/Berkeley/1603Fall/W210/GitHub/slack-pack/data/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$96</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>are you feeling better, &lt;@U15T45XQS&gt; ?</t>
   </si>
@@ -312,6 +315,18 @@
   </si>
   <si>
     <t>&lt;@U17DGAWDR&gt;: are those subjects per cell, or overall? I think going for power here, especially if you can recruit at work is a good idea</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -626,1051 +641,1452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C95"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="136" workbookViewId="0">
+      <selection activeCell="D84" sqref="D81:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1466471391.0000801</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="str">
+        <f>IF(COUNTIFS(B:B,B2)&gt;3,"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1466472231.0000801</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">IF(COUNTIFS(B:B,B3)&gt;3,"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1466477383.0000899</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1466978749.0001099</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>1466540558.0000899</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1466544308.0000899</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1466544368.0000899</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1466544308.0000899</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1466544368.0000899</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>1466555449.0000899</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>1466722630.0000999</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>1466722721.0000999</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>1466876139.0000999</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>1466978503.0000999</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>1466978513.0000999</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>1466978651.0001099</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1466978696.0001099</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1466978749.0001099</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1466978829.0001099</v>
       </c>
       <c r="B16">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1466985060.0001099</v>
       </c>
       <c r="B17">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1466985246.0001099</v>
       </c>
       <c r="B18">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1466985312.0001099</v>
       </c>
       <c r="B19">
         <v>11</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1466985338.0001099</v>
       </c>
       <c r="B20">
         <v>11</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1467051024.0001199</v>
+        <v>1466978696.0001099</v>
       </c>
       <c r="B21">
         <v>12</v>
       </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1467058925.0001199</v>
+        <v>1467051024.0001199</v>
       </c>
       <c r="B22">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1467059064.0001199</v>
+        <v>1467058925.0001199</v>
       </c>
       <c r="B23">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1467059064.0001199</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>1467065363.0001199</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>13</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>1467065506.0001299</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>14</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>1467065825.0001299</v>
-      </c>
-      <c r="B26">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1467067535.0001299</v>
       </c>
       <c r="B27">
         <v>15</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1467067535.0001299</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1467074173.0001299</v>
-      </c>
-      <c r="B28">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1467074446.0001299</v>
       </c>
       <c r="B29">
         <v>15</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1467074807.0001299</v>
       </c>
       <c r="B30">
         <v>15</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1467074855.00014</v>
       </c>
       <c r="B31">
         <v>15</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1467075193.00014</v>
       </c>
       <c r="B32">
         <v>15</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1467122506.00014</v>
       </c>
       <c r="B33">
         <v>15</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1467122790.00014</v>
       </c>
       <c r="B34">
         <v>15</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1467125687.00014</v>
       </c>
       <c r="B35">
         <v>15</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
+        <v>1467074173.0001299</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>1467172656.00014</v>
-      </c>
-      <c r="B36">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1467218756.00014</v>
       </c>
       <c r="B37">
         <v>17</v>
       </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1467220892.00014</v>
+        <v>1467218756.00014</v>
       </c>
       <c r="B38">
         <v>17</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1467220892.00014</v>
+      </c>
+      <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>1467651179.00015</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>18</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>1467677159.00015</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>19</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>1467677843.00016</v>
-      </c>
-      <c r="B41">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1467740884.00016</v>
       </c>
       <c r="B42">
         <v>20</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1467740884.00016</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>1467840572.00016</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>21</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1467840707.00016</v>
-      </c>
-      <c r="B44">
-        <v>22</v>
-      </c>
-      <c r="C44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1467840741.00016</v>
       </c>
       <c r="B45">
         <v>21</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1467840767.00017</v>
       </c>
       <c r="B46">
         <v>21</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1467840778.00017</v>
       </c>
       <c r="B47">
         <v>21</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
+        <v>1467916801.00018</v>
+      </c>
+      <c r="B48">
+        <v>21</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1467840707.00016</v>
+      </c>
+      <c r="B49">
+        <v>22</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>1467857623.00017</v>
-      </c>
-      <c r="B48">
-        <v>23</v>
-      </c>
-      <c r="C48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>1467857672.00017</v>
-      </c>
-      <c r="B49">
-        <v>23</v>
-      </c>
-      <c r="C49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>1467857698.00017</v>
       </c>
       <c r="B50">
         <v>23</v>
       </c>
-      <c r="C50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1467858241.00017</v>
+        <v>1467857672.00017</v>
       </c>
       <c r="B51">
         <v>23</v>
       </c>
-      <c r="C51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1467861207.00017</v>
+        <v>1467857698.00017</v>
       </c>
       <c r="B52">
         <v>23</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1467858241.00017</v>
+      </c>
+      <c r="B53">
+        <v>23</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1467861207.00017</v>
+      </c>
+      <c r="B54">
+        <v>23</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>1467916801.00018</v>
-      </c>
-      <c r="B53">
-        <v>21</v>
-      </c>
-      <c r="C53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>1467939117.00018</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>24</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>1467939288.00018</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>25</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>1468111836.00019</v>
-      </c>
-      <c r="B56">
-        <v>26</v>
-      </c>
-      <c r="C56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>1468111902.00019</v>
       </c>
       <c r="B57">
         <v>26</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1468111902.00019</v>
+      </c>
+      <c r="B58">
+        <v>26</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>1468177402.00019</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>27</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>1468352878.00019</v>
-      </c>
-      <c r="B59">
-        <v>28</v>
-      </c>
-      <c r="C59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>1468353039.0002</v>
       </c>
       <c r="B60">
         <v>28</v>
       </c>
-      <c r="C60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1468353921.0002</v>
+        <v>1468353039.0002</v>
       </c>
       <c r="B61">
         <v>28</v>
       </c>
-      <c r="C61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1468354469.0002</v>
+        <v>1468353921.0002</v>
       </c>
       <c r="B62">
         <v>28</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1468354469.0002</v>
+      </c>
+      <c r="B63">
+        <v>28</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="D63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1468421836.0002</v>
       </c>
       <c r="B64">
         <v>29</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>29</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1468479766.0002</v>
       </c>
       <c r="B66">
         <v>30</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="D66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1468516794.0002</v>
       </c>
       <c r="B67">
         <v>31</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C95" si="1">IF(COUNTIFS(B:B,B67)&gt;3,"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="D67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1468522452.00021</v>
       </c>
       <c r="B68">
         <v>31</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
+        <v>1468545520.0002201</v>
+      </c>
+      <c r="B69">
+        <v>31</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>1468530876.00021</v>
-      </c>
-      <c r="B69">
-        <v>32</v>
-      </c>
-      <c r="C69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>1468532583.00021</v>
       </c>
       <c r="B70">
         <v>32</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1468532583.00021</v>
+      </c>
+      <c r="B71">
+        <v>32</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>1468543017.00021</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>33</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>1468545235.0002201</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>34</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>1468545333.0002201</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>35</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>1468545520.0002201</v>
-      </c>
-      <c r="B74">
-        <v>31</v>
-      </c>
-      <c r="C74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1468546005.0002201</v>
       </c>
       <c r="B75">
         <v>36</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1468547881.0002201</v>
       </c>
       <c r="B76">
         <v>37</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1468548737.0002201</v>
       </c>
       <c r="B77">
         <v>37</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1468549244.0002201</v>
       </c>
       <c r="B78">
         <v>38</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1468549264.0002301</v>
       </c>
       <c r="B79">
         <v>38</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1468549438.0002301</v>
       </c>
       <c r="B80">
         <v>38</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1468612809.0002301</v>
       </c>
       <c r="B81">
         <v>39</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+      <c r="D81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1468623649.0002301</v>
       </c>
       <c r="B82">
         <v>39</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+      <c r="D82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1468623803.0002401</v>
       </c>
       <c r="B83">
         <v>39</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+      <c r="D83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1468624068.0002401</v>
       </c>
       <c r="B84">
         <v>39</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+      <c r="D84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1468644877.0002401</v>
       </c>
       <c r="B85">
         <v>40</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1468644926.0002401</v>
       </c>
       <c r="B86">
         <v>41</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1468771885</v>
       </c>
       <c r="B87">
         <v>42</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+      <c r="D87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1468771899</v>
       </c>
       <c r="B88">
         <v>42</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+      <c r="D88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1468772064</v>
       </c>
       <c r="B89">
         <v>42</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+      <c r="D89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1468772097</v>
+        <v>1468772100.00001</v>
       </c>
       <c r="B90">
-        <v>43</v>
-      </c>
-      <c r="C90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+      <c r="D90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1468772100.00001</v>
+        <v>1468772141.00001</v>
       </c>
       <c r="B91">
         <v>42</v>
       </c>
-      <c r="C91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+      <c r="D91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1468772141.00001</v>
+        <v>1468772285.00001</v>
       </c>
       <c r="B92">
         <v>42</v>
       </c>
-      <c r="C92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+      <c r="D92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1468772285.00001</v>
+        <v>1468772097</v>
       </c>
       <c r="B93">
-        <v>42</v>
-      </c>
-      <c r="C93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1468772581.00001</v>
       </c>
       <c r="B94">
         <v>44</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1468780778.00001</v>
       </c>
       <c r="B95">
         <v>45</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="D95" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D96">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:C96">
+      <sortCondition ref="B1:B96"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>